--- a/test scenario .xlsx
+++ b/test scenario .xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
   <si>
     <t>Test scenario id</t>
   </si>
@@ -30,18 +30,12 @@
     <t>application work correctly</t>
   </si>
   <si>
-    <t>ig for registration making id properly</t>
-  </si>
-  <si>
     <t>in registration mandotery field shown *</t>
   </si>
   <si>
     <t>all the personal details filled or register correctly</t>
   </si>
   <si>
-    <t>shown error for the registration same name used like other users have this kind of id show change the name</t>
-  </si>
-  <si>
     <t>check the password correct or not</t>
   </si>
   <si>
@@ -105,9 +99,6 @@
     <t>bloking id may work correctly or not</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>test scenario id</t>
   </si>
   <si>
@@ -223,13 +214,25 @@
   </si>
   <si>
     <t>add or search abt their jobs</t>
+  </si>
+  <si>
+    <t>TEST SCENARIO OF INSTAGRAM</t>
+  </si>
+  <si>
+    <t>Test scenario name</t>
+  </si>
+  <si>
+    <t>registration properly or not</t>
+  </si>
+  <si>
+    <t>user name not to be same as other it should be unique</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,13 +240,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -258,8 +287,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,252 +594,258 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="95.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
+      <c r="B2" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
+    <row r="4" spans="1:2">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
+    <row r="5" spans="1:2">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
+    <row r="6" spans="1:2">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
+    <row r="8" spans="1:2">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
+    <row r="25" spans="1:2">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2">
+        <v>26</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2">
+        <v>27</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2">
+        <v>28</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -819,10 +865,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -830,7 +876,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -838,7 +884,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -846,7 +892,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -854,7 +900,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -862,7 +908,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -870,7 +916,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -878,7 +924,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -886,7 +932,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -894,7 +940,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -902,7 +948,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -910,7 +956,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -918,7 +964,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -926,7 +972,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -934,7 +980,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -942,7 +988,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -950,7 +996,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -958,7 +1004,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -966,7 +1012,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -974,7 +1020,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -982,7 +1028,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -990,7 +1036,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -998,7 +1044,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1022,10 +1068,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1033,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1041,7 +1087,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1049,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1057,7 +1103,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1065,7 +1111,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1073,7 +1119,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1081,7 +1127,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1089,7 +1135,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1097,7 +1143,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1105,7 +1151,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1113,7 +1159,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1121,7 +1167,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1129,7 +1175,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1137,7 +1183,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1145,7 +1191,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/test scenario .xlsx
+++ b/test scenario .xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="138">
   <si>
     <t>Test scenario id</t>
   </si>
@@ -99,12 +102,6 @@
     <t>bloking id may work correctly or not</t>
   </si>
   <si>
-    <t>test scenario id</t>
-  </si>
-  <si>
-    <t>descrition</t>
-  </si>
-  <si>
     <t xml:space="preserve">user may see all the product </t>
   </si>
   <si>
@@ -226,6 +223,216 @@
   </si>
   <si>
     <t>user name not to be same as other it should be unique</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>TEST SCENARIO OF FLIPKART</t>
+  </si>
+  <si>
+    <t>TEST SCENARIO OF LINKEDIN</t>
+  </si>
+  <si>
+    <t>TEST SENARIO OF CHAT BOX</t>
+  </si>
+  <si>
+    <t>TEST SCENARIO OF FOLDER RENAME</t>
+  </si>
+  <si>
+    <t>TEST SCENARIO OF GMAIL</t>
+  </si>
+  <si>
+    <t>Test senario id</t>
+  </si>
+  <si>
+    <t>check the maximum length of the message</t>
+  </si>
+  <si>
+    <t>check the quick reaction send to frnd - like story reply</t>
+  </si>
+  <si>
+    <t>check - send the attachment to the frnd - images , gif, video</t>
+  </si>
+  <si>
+    <t>check the voice message - correctly or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maximum how many images send </t>
+  </si>
+  <si>
+    <t>lenghth of the video</t>
+  </si>
+  <si>
+    <t>in a group - how may person involve in chat</t>
+  </si>
+  <si>
+    <t>check user can hide a chat - private</t>
+  </si>
+  <si>
+    <t>check user create their avtar - bitmoji - charac.</t>
+  </si>
+  <si>
+    <t>check user have the option for a chat - open once</t>
+  </si>
+  <si>
+    <t>check the chat duration remove in after view or after 24 hr.</t>
+  </si>
+  <si>
+    <t>users can save the chat</t>
+  </si>
+  <si>
+    <t>user can delete their message or unsend their message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user can reply the other message </t>
+  </si>
+  <si>
+    <t>check in a message send a picture through camera</t>
+  </si>
+  <si>
+    <t>check we can send the post we like or the saved post</t>
+  </si>
+  <si>
+    <t>message can copy or paste</t>
+  </si>
+  <si>
+    <t>send a location</t>
+  </si>
+  <si>
+    <t>send a contact</t>
+  </si>
+  <si>
+    <t>pay the payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we can play a game </t>
+  </si>
+  <si>
+    <t>send a message with effect like - bubble or screen (I message)</t>
+  </si>
+  <si>
+    <t>user can add a person in a grp</t>
+  </si>
+  <si>
+    <t>user can forward a messge to other</t>
+  </si>
+  <si>
+    <t>verify the blocked person view the chat or not</t>
+  </si>
+  <si>
+    <t>maximum chara. Of name</t>
+  </si>
+  <si>
+    <t>all the numbers, alph. And special chara. Allowed</t>
+  </si>
+  <si>
+    <t>open floder easily in a single click</t>
+  </si>
+  <si>
+    <t xml:space="preserve">show a message if the same name of folder </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pop up a message If any invalid name </t>
+  </si>
+  <si>
+    <t>on a folder right click show the option folder renaming</t>
+  </si>
+  <si>
+    <t>verify after rename folder name and save it's renaming</t>
+  </si>
+  <si>
+    <t>allow a single chara. To rename</t>
+  </si>
+  <si>
+    <t>show aerror message - folder should not allowed prohibited cha. &lt;?{"</t>
+  </si>
+  <si>
+    <t>allow space between name</t>
+  </si>
+  <si>
+    <t>verify the gmail should open In - phone or lp</t>
+  </si>
+  <si>
+    <t>verify user can login easily</t>
+  </si>
+  <si>
+    <t>verify the registered easily</t>
+  </si>
+  <si>
+    <t>verify the user can add multiple id</t>
+  </si>
+  <si>
+    <t>verify user can marked message as important</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify user can short a message like unread </t>
+  </si>
+  <si>
+    <t>verify the unread message number showed in displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify the new mail notification get </t>
+  </si>
+  <si>
+    <t>verify the new mail shown sender name or the subject</t>
+  </si>
+  <si>
+    <t>verify the maximum attachment send</t>
+  </si>
+  <si>
+    <t>verify the user can join a meet or arrange a meet</t>
+  </si>
+  <si>
+    <t>verify user can stared a message</t>
+  </si>
+  <si>
+    <t>verify user can delete a unnessasary mail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user can blocked </t>
+  </si>
+  <si>
+    <t>user can get all the mail in inboxes</t>
+  </si>
+  <si>
+    <t>user can send a mail easily</t>
+  </si>
+  <si>
+    <t>verify user can archive the mail</t>
+  </si>
+  <si>
+    <t>user can report a mail as a spam</t>
+  </si>
+  <si>
+    <t>user can mute or unmute the mail</t>
+  </si>
+  <si>
+    <t>user can snooze the mail</t>
+  </si>
+  <si>
+    <t>in a sent all the sents list shown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shown the correct date or time </t>
+  </si>
+  <si>
+    <t>user can reply the mail</t>
+  </si>
+  <si>
+    <t>verify the unread message highlighted</t>
+  </si>
+  <si>
+    <t>verify the download attachments</t>
+  </si>
+  <si>
+    <t>verify the text can add in subjected area or a mail body area</t>
+  </si>
+  <si>
+    <t>show the pop up message if sent withut subject</t>
+  </si>
+  <si>
+    <t>verify the edit font size , style , color</t>
   </si>
 </sst>
 </file>
@@ -249,7 +456,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,6 +481,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -287,7 +506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -300,6 +519,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -607,8 +838,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="B1" s="1" t="s">
-        <v>66</v>
+      <c r="A1" s="1"/>
+      <c r="B1" s="11" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -616,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -648,7 +880,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -672,7 +904,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -851,213 +1083,220 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="84.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="8">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="8">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="8">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="8">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="8">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="8">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="8">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="8">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="8">
+        <v>14</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="8">
+        <v>15</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="8">
+        <v>16</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="8">
+        <v>17</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="8">
+        <v>18</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="8">
+        <v>19</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="8">
+        <v>20</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="8">
+        <v>21</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" s="8">
+        <v>22</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1067,131 +1306,740 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="8">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="8">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="8">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="8">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="8">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="8">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="8">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="8">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="8">
+        <v>14</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="8">
+        <v>15</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="7">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="7">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="7">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="7">
+        <v>14</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="7">
+        <v>15</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="7">
+        <v>16</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="7">
+        <v>17</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="7">
+        <v>18</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="7">
+        <v>19</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="7">
+        <v>20</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="7">
+        <v>21</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="7">
+        <v>22</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="7">
+        <v>23</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="7">
+        <v>24</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="7">
+        <v>25</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="72.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="81" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="7">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="7">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="7">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="7">
+        <v>14</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="7">
+        <v>15</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="7">
+        <v>16</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="7">
+        <v>17</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="7">
+        <v>18</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="7">
+        <v>19</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="7">
+        <v>20</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="7">
+        <v>21</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="7">
+        <v>22</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="7">
+        <v>23</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="7">
+        <v>24</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="7">
+        <v>25</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="7">
+        <v>26</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="7">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B29" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="7">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>65</v>
+      <c r="B30" s="7" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
